--- a/data/pca/factorExposure/factorExposure_2016-04-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01003188488029204</v>
+        <v>0.0135122714337444</v>
       </c>
       <c r="C2">
-        <v>0.0569711111792426</v>
+        <v>0.03959818220495685</v>
       </c>
       <c r="D2">
-        <v>-0.04396846739088021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05756168591634618</v>
+      </c>
+      <c r="E2">
+        <v>0.09051681881150732</v>
+      </c>
+      <c r="F2">
+        <v>-0.08581683738042262</v>
+      </c>
+      <c r="G2">
+        <v>-0.02868957112534256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04094310274919035</v>
+        <v>0.02545767947245205</v>
       </c>
       <c r="C3">
-        <v>0.1192365181643428</v>
+        <v>0.06617864229770072</v>
       </c>
       <c r="D3">
-        <v>-0.08449828380465163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07153996143384143</v>
+      </c>
+      <c r="E3">
+        <v>0.07333728592827306</v>
+      </c>
+      <c r="F3">
+        <v>0.02302240394591561</v>
+      </c>
+      <c r="G3">
+        <v>-0.04752445315577424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06301406780769864</v>
+        <v>0.06080964525575629</v>
       </c>
       <c r="C4">
-        <v>0.05940078302621164</v>
+        <v>0.06204751330090848</v>
       </c>
       <c r="D4">
-        <v>-0.02526314527080457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05114209947165061</v>
+      </c>
+      <c r="E4">
+        <v>0.09106054568056543</v>
+      </c>
+      <c r="F4">
+        <v>-0.04125268269579092</v>
+      </c>
+      <c r="G4">
+        <v>-0.0924859048327651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04076999358202075</v>
+        <v>0.03684625681601105</v>
       </c>
       <c r="C6">
-        <v>0.03389156598895686</v>
+        <v>0.02534656139593686</v>
       </c>
       <c r="D6">
-        <v>-0.0299576624313088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06096668933071928</v>
+      </c>
+      <c r="E6">
+        <v>0.0884302119704468</v>
+      </c>
+      <c r="F6">
+        <v>-0.02677769241345513</v>
+      </c>
+      <c r="G6">
+        <v>-0.06708246754737783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02749444598423328</v>
+        <v>0.02144540977095872</v>
       </c>
       <c r="C7">
-        <v>0.04038430484712217</v>
+        <v>0.0356658513401053</v>
       </c>
       <c r="D7">
-        <v>0.005162243401751605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03690980915436889</v>
+      </c>
+      <c r="E7">
+        <v>0.06629283180546885</v>
+      </c>
+      <c r="F7">
+        <v>-0.07012644156490251</v>
+      </c>
+      <c r="G7">
+        <v>-0.09729453187304643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007233385536141262</v>
+        <v>0.00535627334881439</v>
       </c>
       <c r="C8">
-        <v>0.03767695653389978</v>
+        <v>0.03277295258392928</v>
       </c>
       <c r="D8">
-        <v>-0.02685675197467258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0324625217172182</v>
+      </c>
+      <c r="E8">
+        <v>0.06214487701512469</v>
+      </c>
+      <c r="F8">
+        <v>-0.02024416988818799</v>
+      </c>
+      <c r="G8">
+        <v>-0.0374372444010543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0361533626137944</v>
+        <v>0.03926968512327549</v>
       </c>
       <c r="C9">
-        <v>0.04812712043980261</v>
+        <v>0.05024394704640655</v>
       </c>
       <c r="D9">
-        <v>-0.01010744334285771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03665991806454555</v>
+      </c>
+      <c r="E9">
+        <v>0.0745921728405257</v>
+      </c>
+      <c r="F9">
+        <v>-0.05369598389908636</v>
+      </c>
+      <c r="G9">
+        <v>-0.08728530347598148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07130792118503629</v>
+        <v>0.09738583876632709</v>
       </c>
       <c r="C10">
-        <v>-0.1889776180692074</v>
+        <v>-0.1995207795178426</v>
       </c>
       <c r="D10">
-        <v>0.007816619640154921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01193841577739157</v>
+      </c>
+      <c r="E10">
+        <v>0.0329274973157385</v>
+      </c>
+      <c r="F10">
+        <v>-0.0165838937716025</v>
+      </c>
+      <c r="G10">
+        <v>-0.03616884375816244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04239125336188035</v>
+        <v>0.03770260555084395</v>
       </c>
       <c r="C11">
-        <v>0.05084338798440706</v>
+        <v>0.0472138997020355</v>
       </c>
       <c r="D11">
-        <v>-0.01421282986415041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03153957326624407</v>
+      </c>
+      <c r="E11">
+        <v>0.03022118088767735</v>
+      </c>
+      <c r="F11">
+        <v>-0.04071540424022903</v>
+      </c>
+      <c r="G11">
+        <v>-0.06858405177521881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0450476665527822</v>
+        <v>0.03986715663509092</v>
       </c>
       <c r="C12">
-        <v>0.04570980885244973</v>
+        <v>0.04465664966772287</v>
       </c>
       <c r="D12">
-        <v>-0.003437468941054188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02663420382688769</v>
+      </c>
+      <c r="E12">
+        <v>0.0366239407266786</v>
+      </c>
+      <c r="F12">
+        <v>-0.04307512092591569</v>
+      </c>
+      <c r="G12">
+        <v>-0.06644653465865587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01477578679506932</v>
+        <v>0.01225417948833417</v>
       </c>
       <c r="C13">
-        <v>0.05282130541385589</v>
+        <v>0.0412409949001483</v>
       </c>
       <c r="D13">
-        <v>-0.009185924850419587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04315480982204274</v>
+      </c>
+      <c r="E13">
+        <v>0.1030564114147746</v>
+      </c>
+      <c r="F13">
+        <v>-0.06008192495209319</v>
+      </c>
+      <c r="G13">
+        <v>-0.09620901319680286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01017761604835586</v>
+        <v>0.00667270835735097</v>
       </c>
       <c r="C14">
-        <v>0.03991467258847996</v>
+        <v>0.03159949648231496</v>
       </c>
       <c r="D14">
-        <v>0.007421974903963072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02455545563323759</v>
+      </c>
+      <c r="E14">
+        <v>0.05008528584116002</v>
+      </c>
+      <c r="F14">
+        <v>-0.07635454061777394</v>
+      </c>
+      <c r="G14">
+        <v>-0.08387091847139777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-3.835505699135634e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005451039507966889</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007347258676218442</v>
+      </c>
+      <c r="E15">
+        <v>0.004827446289985306</v>
+      </c>
+      <c r="F15">
+        <v>-0.006556977567803818</v>
+      </c>
+      <c r="G15">
+        <v>-0.007376078812322775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04009033569523886</v>
+        <v>0.03570862743143233</v>
       </c>
       <c r="C16">
-        <v>0.04820230719106239</v>
+        <v>0.04421113309533234</v>
       </c>
       <c r="D16">
-        <v>-0.00525225533312802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02488544010548827</v>
+      </c>
+      <c r="E16">
+        <v>0.04318435584164958</v>
+      </c>
+      <c r="F16">
+        <v>-0.05217351600571532</v>
+      </c>
+      <c r="G16">
+        <v>-0.05678425228692525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02615907626257248</v>
+        <v>0.01898880068723061</v>
       </c>
       <c r="C19">
-        <v>0.05916811525443232</v>
+        <v>0.04335166854684012</v>
       </c>
       <c r="D19">
-        <v>-0.09095782067167782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09189968266611652</v>
+      </c>
+      <c r="E19">
+        <v>0.113738616046637</v>
+      </c>
+      <c r="F19">
+        <v>-0.06569265308366176</v>
+      </c>
+      <c r="G19">
+        <v>-0.04394270470934217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01850442757447178</v>
+        <v>0.01495708909770636</v>
       </c>
       <c r="C20">
-        <v>0.04780792814928807</v>
+        <v>0.03874197081259306</v>
       </c>
       <c r="D20">
-        <v>-0.01004013291717378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03245217006870323</v>
+      </c>
+      <c r="E20">
+        <v>0.08045376613093817</v>
+      </c>
+      <c r="F20">
+        <v>-0.05318192962393994</v>
+      </c>
+      <c r="G20">
+        <v>-0.06633363825761596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01179029851203124</v>
+        <v>0.01035314636229593</v>
       </c>
       <c r="C21">
-        <v>0.05292941160700553</v>
+        <v>0.04168329305333823</v>
       </c>
       <c r="D21">
-        <v>-0.03340800995541474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05566784988520924</v>
+      </c>
+      <c r="E21">
+        <v>0.1274644858351091</v>
+      </c>
+      <c r="F21">
+        <v>-0.09097606871725533</v>
+      </c>
+      <c r="G21">
+        <v>-0.1004023279211154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001823515475391985</v>
+        <v>0.003553077845856784</v>
       </c>
       <c r="C22">
-        <v>0.001147961045439851</v>
+        <v>0.02753222717937481</v>
       </c>
       <c r="D22">
-        <v>-0.005595527410634409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04365523923509017</v>
+      </c>
+      <c r="E22">
+        <v>0.04713270122204297</v>
+      </c>
+      <c r="F22">
+        <v>0.01204773594416655</v>
+      </c>
+      <c r="G22">
+        <v>-0.05420045114339166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001829147316127595</v>
+        <v>0.003644878301281682</v>
       </c>
       <c r="C23">
-        <v>0.001167011668497473</v>
+        <v>0.0276700281213849</v>
       </c>
       <c r="D23">
-        <v>-0.005584539720921812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04320645385199876</v>
+      </c>
+      <c r="E23">
+        <v>0.04739910585200808</v>
+      </c>
+      <c r="F23">
+        <v>0.01231249788236368</v>
+      </c>
+      <c r="G23">
+        <v>-0.05418108198732539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03706047418579736</v>
+        <v>0.03614233136756984</v>
       </c>
       <c r="C24">
-        <v>0.04966190573570228</v>
+        <v>0.0517464579103865</v>
       </c>
       <c r="D24">
-        <v>-0.006712235115197918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0239315688331142</v>
+      </c>
+      <c r="E24">
+        <v>0.04468851377186747</v>
+      </c>
+      <c r="F24">
+        <v>-0.05430160227986403</v>
+      </c>
+      <c r="G24">
+        <v>-0.07045385550626861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04883230510939197</v>
+        <v>0.04405844668160125</v>
       </c>
       <c r="C25">
-        <v>0.06068395422207395</v>
+        <v>0.05559777391209928</v>
       </c>
       <c r="D25">
-        <v>0.003488464670602189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02221871466668012</v>
+      </c>
+      <c r="E25">
+        <v>0.03762368071314989</v>
+      </c>
+      <c r="F25">
+        <v>-0.04411857196235876</v>
+      </c>
+      <c r="G25">
+        <v>-0.07869066183759998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01661739015923801</v>
+        <v>0.01594626361067223</v>
       </c>
       <c r="C26">
-        <v>0.01774362975388405</v>
+        <v>0.01654791001961494</v>
       </c>
       <c r="D26">
-        <v>-0.001042942515112098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02419491767411386</v>
+      </c>
+      <c r="E26">
+        <v>0.0534293559198562</v>
+      </c>
+      <c r="F26">
+        <v>-0.06004183470677305</v>
+      </c>
+      <c r="G26">
+        <v>-0.05123715385388726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08469358619152434</v>
+        <v>0.1323860850454679</v>
       </c>
       <c r="C28">
-        <v>-0.2476445589732472</v>
+        <v>-0.2555094961729305</v>
       </c>
       <c r="D28">
-        <v>0.009728945229532836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02946993321645809</v>
+      </c>
+      <c r="E28">
+        <v>0.0567274630416955</v>
+      </c>
+      <c r="F28">
+        <v>-0.031227313315655</v>
+      </c>
+      <c r="G28">
+        <v>-0.05197811605052968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007964553516845286</v>
+        <v>0.006620959947926975</v>
       </c>
       <c r="C29">
-        <v>0.03354959270645753</v>
+        <v>0.02856449068511077</v>
       </c>
       <c r="D29">
-        <v>0.01492422149466542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01621341752477639</v>
+      </c>
+      <c r="E29">
+        <v>0.04989745699959684</v>
+      </c>
+      <c r="F29">
+        <v>-0.06670952153346744</v>
+      </c>
+      <c r="G29">
+        <v>-0.08743607486919823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04586952059036985</v>
+        <v>0.04294837619859149</v>
       </c>
       <c r="C30">
-        <v>0.05358417671228546</v>
+        <v>0.05624379360108828</v>
       </c>
       <c r="D30">
-        <v>-0.07956280515490712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.10124745915901</v>
+      </c>
+      <c r="E30">
+        <v>0.08064103735915883</v>
+      </c>
+      <c r="F30">
+        <v>-0.06972703416417589</v>
+      </c>
+      <c r="G30">
+        <v>-0.06798713445631835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06067306473552856</v>
+        <v>0.05883147053826621</v>
       </c>
       <c r="C31">
-        <v>0.04283854489292254</v>
+        <v>0.05993123350644754</v>
       </c>
       <c r="D31">
-        <v>0.04409907660979315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01860227362739551</v>
+      </c>
+      <c r="E31">
+        <v>0.07107247144451478</v>
+      </c>
+      <c r="F31">
+        <v>-0.02743038206307712</v>
+      </c>
+      <c r="G31">
+        <v>-0.08484121008760846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00110978323498877</v>
+        <v>0.00609434498994086</v>
       </c>
       <c r="C32">
-        <v>0.04295469425893074</v>
+        <v>0.03408917180903788</v>
       </c>
       <c r="D32">
-        <v>-0.05716835388009422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05330503517449045</v>
+      </c>
+      <c r="E32">
+        <v>0.05691477171300265</v>
+      </c>
+      <c r="F32">
+        <v>-0.06919823592752165</v>
+      </c>
+      <c r="G32">
+        <v>-0.06888844780010525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03378528887547275</v>
+        <v>0.02804789165785827</v>
       </c>
       <c r="C33">
-        <v>0.05719027257212913</v>
+        <v>0.05174639435190717</v>
       </c>
       <c r="D33">
-        <v>-0.03960181803673866</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06974714245177498</v>
+      </c>
+      <c r="E33">
+        <v>0.0925466881678257</v>
+      </c>
+      <c r="F33">
+        <v>-0.06801799497876997</v>
+      </c>
+      <c r="G33">
+        <v>-0.09854711657757372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04608232572990296</v>
+        <v>0.04162042754716449</v>
       </c>
       <c r="C34">
-        <v>0.06389354358926967</v>
+        <v>0.06221033148829749</v>
       </c>
       <c r="D34">
-        <v>-0.01984603006636012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0381358028439305</v>
+      </c>
+      <c r="E34">
+        <v>0.01935971341491317</v>
+      </c>
+      <c r="F34">
+        <v>-0.05470448747125783</v>
+      </c>
+      <c r="G34">
+        <v>-0.07134401275281212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01700507809033267</v>
+        <v>0.01477489247964146</v>
       </c>
       <c r="C36">
-        <v>0.01647386130977998</v>
+        <v>0.01288901218676128</v>
       </c>
       <c r="D36">
-        <v>0.004078692803684188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02299748153992581</v>
+      </c>
+      <c r="E36">
+        <v>0.06161077678504896</v>
+      </c>
+      <c r="F36">
+        <v>-0.05020744976870425</v>
+      </c>
+      <c r="G36">
+        <v>-0.06823253297561298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03005683720894609</v>
+        <v>0.02369146498385488</v>
       </c>
       <c r="C38">
-        <v>0.03197838522620392</v>
+        <v>0.0240500660925706</v>
       </c>
       <c r="D38">
-        <v>0.01505266598279526</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0210111005184055</v>
+      </c>
+      <c r="E38">
+        <v>0.05199640787066711</v>
+      </c>
+      <c r="F38">
+        <v>-0.04165823714290042</v>
+      </c>
+      <c r="G38">
+        <v>-0.04671634180306921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04759166151036504</v>
+        <v>0.04191336466742267</v>
       </c>
       <c r="C39">
-        <v>0.06191154929652062</v>
+        <v>0.06203634219110097</v>
       </c>
       <c r="D39">
-        <v>-0.02039907808414356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05070223987405394</v>
+      </c>
+      <c r="E39">
+        <v>0.05156594279270747</v>
+      </c>
+      <c r="F39">
+        <v>-0.07432277181403461</v>
+      </c>
+      <c r="G39">
+        <v>-0.06467931326673389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01165959833785627</v>
+        <v>0.01362699328608696</v>
       </c>
       <c r="C40">
-        <v>0.05121758194024852</v>
+        <v>0.03734048166646788</v>
       </c>
       <c r="D40">
-        <v>-0.01909531214040757</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02962062685454477</v>
+      </c>
+      <c r="E40">
+        <v>0.09118959046080576</v>
+      </c>
+      <c r="F40">
+        <v>-0.0352279002328422</v>
+      </c>
+      <c r="G40">
+        <v>-0.1037691028187296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02273455620935947</v>
+        <v>0.01947202440296399</v>
       </c>
       <c r="C41">
-        <v>0.01372163540083396</v>
+        <v>0.009786798305090633</v>
       </c>
       <c r="D41">
-        <v>-0.0003147343279830159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01492246018059047</v>
+      </c>
+      <c r="E41">
+        <v>0.06173827078838165</v>
+      </c>
+      <c r="F41">
+        <v>-0.04644286858405185</v>
+      </c>
+      <c r="G41">
+        <v>-0.05464317399158964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04305047528871658</v>
+        <v>0.03090736406970019</v>
       </c>
       <c r="C43">
-        <v>0.03143721794469979</v>
+        <v>0.02334734355783968</v>
       </c>
       <c r="D43">
-        <v>-0.02261808545436551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04284103528968108</v>
+      </c>
+      <c r="E43">
+        <v>0.07970740137427554</v>
+      </c>
+      <c r="F43">
+        <v>-0.03903256106315573</v>
+      </c>
+      <c r="G43">
+        <v>-0.0830337955857815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01472745461569493</v>
+        <v>0.01597547985834201</v>
       </c>
       <c r="C44">
-        <v>0.06826202571863484</v>
+        <v>0.04785215931748936</v>
       </c>
       <c r="D44">
-        <v>-0.008255852621895987</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03151416942120354</v>
+      </c>
+      <c r="E44">
+        <v>0.087825872270466</v>
+      </c>
+      <c r="F44">
+        <v>-0.06460658342570987</v>
+      </c>
+      <c r="G44">
+        <v>-0.04882896692019353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01044558189076913</v>
+        <v>0.01122320781201977</v>
       </c>
       <c r="C46">
-        <v>0.02805562175440242</v>
+        <v>0.0285638096612405</v>
       </c>
       <c r="D46">
-        <v>0.01529813391827619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0116545960493266</v>
+      </c>
+      <c r="E46">
+        <v>0.05987912691797316</v>
+      </c>
+      <c r="F46">
+        <v>-0.07970484584270544</v>
+      </c>
+      <c r="G46">
+        <v>-0.08735293665831449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08964268234987033</v>
+        <v>0.09263209419201579</v>
       </c>
       <c r="C47">
-        <v>0.06692499504323489</v>
+        <v>0.07819440834634239</v>
       </c>
       <c r="D47">
-        <v>0.04376242130901482</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02603765198529537</v>
+      </c>
+      <c r="E47">
+        <v>0.06835799919900452</v>
+      </c>
+      <c r="F47">
+        <v>-0.02546253468980606</v>
+      </c>
+      <c r="G47">
+        <v>-0.07712429537473242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01844651812761728</v>
+        <v>0.01753430813555592</v>
       </c>
       <c r="C48">
-        <v>0.01403768275206976</v>
+        <v>0.01535330021493776</v>
       </c>
       <c r="D48">
-        <v>0.01717030112794967</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01040060910409731</v>
+      </c>
+      <c r="E48">
+        <v>0.07427310850536308</v>
+      </c>
+      <c r="F48">
+        <v>-0.06372986562758304</v>
+      </c>
+      <c r="G48">
+        <v>-0.07574225236625795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08439904098560286</v>
+        <v>0.07215030721864386</v>
       </c>
       <c r="C50">
-        <v>0.08015520237622187</v>
+        <v>0.07382524887572045</v>
       </c>
       <c r="D50">
-        <v>0.04440238380528369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01035813754255126</v>
+      </c>
+      <c r="E50">
+        <v>0.07931167736297672</v>
+      </c>
+      <c r="F50">
+        <v>0.002847851081286647</v>
+      </c>
+      <c r="G50">
+        <v>-0.09342907784022941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01747009775282464</v>
+        <v>0.01093117270434354</v>
       </c>
       <c r="C51">
-        <v>0.04983657819644903</v>
+        <v>0.03217599279495142</v>
       </c>
       <c r="D51">
-        <v>-0.04139602264789283</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05541222208801866</v>
+      </c>
+      <c r="E51">
+        <v>0.05223839670406445</v>
+      </c>
+      <c r="F51">
+        <v>-0.07035013765717678</v>
+      </c>
+      <c r="G51">
+        <v>-0.06320869038373123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08437463653075346</v>
+        <v>0.0970787188623579</v>
       </c>
       <c r="C53">
-        <v>0.07451176509970429</v>
+        <v>0.08365650978067637</v>
       </c>
       <c r="D53">
-        <v>0.06337314284446408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06141896476681861</v>
+      </c>
+      <c r="E53">
+        <v>0.06610603071111051</v>
+      </c>
+      <c r="F53">
+        <v>-0.02490526044288139</v>
+      </c>
+      <c r="G53">
+        <v>-0.06975484627639268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03686835753930571</v>
+        <v>0.02993403545640167</v>
       </c>
       <c r="C54">
-        <v>0.03680701915904374</v>
+        <v>0.03197896738284212</v>
       </c>
       <c r="D54">
-        <v>0.004567012399414682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02361546192542813</v>
+      </c>
+      <c r="E54">
+        <v>0.05740044827998525</v>
+      </c>
+      <c r="F54">
+        <v>-0.06875869589895807</v>
+      </c>
+      <c r="G54">
+        <v>-0.08551536515961503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0794438077951984</v>
+        <v>0.08946352913563556</v>
       </c>
       <c r="C55">
-        <v>0.05260925103124327</v>
+        <v>0.06621442088230418</v>
       </c>
       <c r="D55">
-        <v>0.06716472613273537</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0615250013870704</v>
+      </c>
+      <c r="E55">
+        <v>0.04311449452946486</v>
+      </c>
+      <c r="F55">
+        <v>-0.007376767349674062</v>
+      </c>
+      <c r="G55">
+        <v>-0.05229147428316278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1530542072881823</v>
+        <v>0.1548362067171948</v>
       </c>
       <c r="C56">
-        <v>0.08169312566472536</v>
+        <v>0.09943592125393937</v>
       </c>
       <c r="D56">
-        <v>0.0595209397860988</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05642474488665327</v>
+      </c>
+      <c r="E56">
+        <v>0.04000906016976835</v>
+      </c>
+      <c r="F56">
+        <v>0.0150202684138758</v>
+      </c>
+      <c r="G56">
+        <v>-0.02335607079622163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04913839866563342</v>
+        <v>0.03077475326830308</v>
       </c>
       <c r="C58">
-        <v>0.01911926553190578</v>
+        <v>0.02084990532317993</v>
       </c>
       <c r="D58">
-        <v>-0.5822892260039615</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3706674200701811</v>
+      </c>
+      <c r="E58">
+        <v>0.6357936432388794</v>
+      </c>
+      <c r="F58">
+        <v>0.3977464267121086</v>
+      </c>
+      <c r="G58">
+        <v>0.4697280089186351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1241496239116003</v>
+        <v>0.1398191634363037</v>
       </c>
       <c r="C59">
-        <v>-0.2025436529586769</v>
+        <v>-0.1921285224518079</v>
       </c>
       <c r="D59">
-        <v>-0.02726233653477541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02987920853061921</v>
+      </c>
+      <c r="E59">
+        <v>0.02773199878113923</v>
+      </c>
+      <c r="F59">
+        <v>-0.03703538995711987</v>
+      </c>
+      <c r="G59">
+        <v>0.008531488053298451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3066710819114249</v>
+        <v>0.2770942182474264</v>
       </c>
       <c r="C60">
-        <v>0.1096763980717101</v>
+        <v>0.1069403681097581</v>
       </c>
       <c r="D60">
-        <v>-0.1816633665772657</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2591909059382373</v>
+      </c>
+      <c r="E60">
+        <v>-0.2371879770392927</v>
+      </c>
+      <c r="F60">
+        <v>0.08907809343584001</v>
+      </c>
+      <c r="G60">
+        <v>-0.04221569455941621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04657741420805975</v>
+        <v>0.04326976996544112</v>
       </c>
       <c r="C61">
-        <v>0.06051725210894437</v>
+        <v>0.05756924143468864</v>
       </c>
       <c r="D61">
-        <v>-0.01367359672437393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04081768569317404</v>
+      </c>
+      <c r="E61">
+        <v>0.05378977508220707</v>
+      </c>
+      <c r="F61">
+        <v>-0.05538210878045786</v>
+      </c>
+      <c r="G61">
+        <v>-0.07885166913425273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01858707147018823</v>
+        <v>0.0170301472142029</v>
       </c>
       <c r="C63">
-        <v>0.03331862329490357</v>
+        <v>0.03033849433482526</v>
       </c>
       <c r="D63">
-        <v>0.0225141782907776</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01535978642203407</v>
+      </c>
+      <c r="E63">
+        <v>0.06447164493961925</v>
+      </c>
+      <c r="F63">
+        <v>-0.03500371258156695</v>
+      </c>
+      <c r="G63">
+        <v>-0.07657145538108864</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05045212592349625</v>
+        <v>0.05648240511569661</v>
       </c>
       <c r="C64">
-        <v>0.04805293584063974</v>
+        <v>0.05756763566550999</v>
       </c>
       <c r="D64">
-        <v>-0.01398944150439609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008217574344858626</v>
+      </c>
+      <c r="E64">
+        <v>0.04392722456081892</v>
+      </c>
+      <c r="F64">
+        <v>-0.05100115163590786</v>
+      </c>
+      <c r="G64">
+        <v>-0.05447642173736453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08125651307733117</v>
+        <v>0.06604614615451067</v>
       </c>
       <c r="C65">
-        <v>0.02630518664197373</v>
+        <v>0.02612238873690766</v>
       </c>
       <c r="D65">
-        <v>-0.0607219548092703</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08687442891734463</v>
+      </c>
+      <c r="E65">
+        <v>0.05536227601071551</v>
+      </c>
+      <c r="F65">
+        <v>-0.004482736807152238</v>
+      </c>
+      <c r="G65">
+        <v>-0.02078057482355929</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06303835755818699</v>
+        <v>0.05383945840092137</v>
       </c>
       <c r="C66">
-        <v>0.08607119905618649</v>
+        <v>0.08010211751191068</v>
       </c>
       <c r="D66">
-        <v>-0.04074721608044506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0751683336874833</v>
+      </c>
+      <c r="E66">
+        <v>0.06222946367877692</v>
+      </c>
+      <c r="F66">
+        <v>-0.06623614706225574</v>
+      </c>
+      <c r="G66">
+        <v>-0.07826109543820006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0517477631604233</v>
+        <v>0.04521163519327585</v>
       </c>
       <c r="C67">
-        <v>0.03137348731297802</v>
+        <v>0.02820036377557967</v>
       </c>
       <c r="D67">
-        <v>0.02228860928998582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004961103765666765</v>
+      </c>
+      <c r="E67">
+        <v>0.02854035832585987</v>
+      </c>
+      <c r="F67">
+        <v>-0.02856739940212763</v>
+      </c>
+      <c r="G67">
+        <v>-0.03690428355657811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1199705027187822</v>
+        <v>0.1448073099991936</v>
       </c>
       <c r="C68">
-        <v>-0.2818435806924558</v>
+        <v>-0.246234541102625</v>
       </c>
       <c r="D68">
-        <v>0.009046170688465933</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01670515178236246</v>
+      </c>
+      <c r="E68">
+        <v>0.0420192628220104</v>
+      </c>
+      <c r="F68">
+        <v>-0.01066176394637117</v>
+      </c>
+      <c r="G68">
+        <v>-0.03040156857655263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09263004310242129</v>
+        <v>0.08800966140496994</v>
       </c>
       <c r="C69">
-        <v>0.07055985964828942</v>
+        <v>0.08894467401974562</v>
       </c>
       <c r="D69">
-        <v>0.05066458897020863</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01697663203092261</v>
+      </c>
+      <c r="E69">
+        <v>0.06081631018536299</v>
+      </c>
+      <c r="F69">
+        <v>-0.05667660819805113</v>
+      </c>
+      <c r="G69">
+        <v>-0.07818752170991632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1118640548716989</v>
+        <v>0.1398167368425688</v>
       </c>
       <c r="C71">
-        <v>-0.2593548915726955</v>
+        <v>-0.2454277922992628</v>
       </c>
       <c r="D71">
-        <v>-0.01211294556655309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0007857740044645415</v>
+      </c>
+      <c r="E71">
+        <v>0.0555078038241855</v>
+      </c>
+      <c r="F71">
+        <v>-0.01299138075963426</v>
+      </c>
+      <c r="G71">
+        <v>-0.06327903444568343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09815158378305776</v>
+        <v>0.1042978825253079</v>
       </c>
       <c r="C72">
-        <v>0.04524643139075731</v>
+        <v>0.05197933124786189</v>
       </c>
       <c r="D72">
-        <v>-0.006657287415410097</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0319741285349404</v>
+      </c>
+      <c r="E72">
+        <v>0.02079080809266332</v>
+      </c>
+      <c r="F72">
+        <v>-0.02296669053192515</v>
+      </c>
+      <c r="G72">
+        <v>-0.08617623572999256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3962709193681225</v>
+        <v>0.3361839599367447</v>
       </c>
       <c r="C73">
-        <v>0.04926798571556806</v>
+        <v>0.071797141577013</v>
       </c>
       <c r="D73">
-        <v>-0.4401568271952754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5143945255346243</v>
+      </c>
+      <c r="E73">
+        <v>-0.4399563918600153</v>
+      </c>
+      <c r="F73">
+        <v>0.2520961049933806</v>
+      </c>
+      <c r="G73">
+        <v>-0.01666446542169474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1070994032576671</v>
+        <v>0.1119220115050586</v>
       </c>
       <c r="C74">
-        <v>0.09201567210547192</v>
+        <v>0.09152413218164188</v>
       </c>
       <c r="D74">
-        <v>0.04919733537632055</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04991843384890663</v>
+      </c>
+      <c r="E74">
+        <v>0.06127936903825992</v>
+      </c>
+      <c r="F74">
+        <v>0.01506430218802728</v>
+      </c>
+      <c r="G74">
+        <v>-0.05434028124729015</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2604497099654919</v>
+        <v>0.2629672731586929</v>
       </c>
       <c r="C75">
-        <v>0.091026936068498</v>
+        <v>0.1222669004765639</v>
       </c>
       <c r="D75">
-        <v>0.1365552074873838</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1502762662798438</v>
+      </c>
+      <c r="E75">
+        <v>0.02914120802806329</v>
+      </c>
+      <c r="F75">
+        <v>0.06775022066432167</v>
+      </c>
+      <c r="G75">
+        <v>0.05646870739670846</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1172203911976665</v>
+        <v>0.1302514151971656</v>
       </c>
       <c r="C76">
-        <v>0.07831039139173508</v>
+        <v>0.0906076410646018</v>
       </c>
       <c r="D76">
-        <v>0.07764767695062423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08314813227336675</v>
+      </c>
+      <c r="E76">
+        <v>0.07225772341429033</v>
+      </c>
+      <c r="F76">
+        <v>-0.01151059475107781</v>
+      </c>
+      <c r="G76">
+        <v>-0.03203471226988208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07953809209199532</v>
+        <v>0.06545070204786638</v>
       </c>
       <c r="C77">
-        <v>0.04758554754113748</v>
+        <v>0.06018421699294175</v>
       </c>
       <c r="D77">
-        <v>-0.05072908262069448</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05132924099818229</v>
+      </c>
+      <c r="E77">
+        <v>0.09511885542938381</v>
+      </c>
+      <c r="F77">
+        <v>-0.179218502311309</v>
+      </c>
+      <c r="G77">
+        <v>0.09112359645762287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04890490589075805</v>
+        <v>0.04698144606804239</v>
       </c>
       <c r="C78">
-        <v>0.04457914342370926</v>
+        <v>0.0548306772842907</v>
       </c>
       <c r="D78">
-        <v>-0.02999691012121351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06058510060467723</v>
+      </c>
+      <c r="E78">
+        <v>0.06118572406823235</v>
+      </c>
+      <c r="F78">
+        <v>-0.05539950889582135</v>
+      </c>
+      <c r="G78">
+        <v>-0.0617269891940421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-5.815404448713533e-05</v>
+        <v>0.03225920388343576</v>
       </c>
       <c r="C79">
-        <v>-0.0002085743974010604</v>
+        <v>0.04495833851921375</v>
       </c>
       <c r="D79">
-        <v>-0.0004636955528542959</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07893885245960594</v>
+      </c>
+      <c r="E79">
+        <v>0.06506932138610366</v>
+      </c>
+      <c r="F79">
+        <v>0.01891046964914566</v>
+      </c>
+      <c r="G79">
+        <v>-0.03334672793751631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0400566887128762</v>
+        <v>0.03124030214304512</v>
       </c>
       <c r="C80">
-        <v>0.04847942333559223</v>
+        <v>0.04936423621692705</v>
       </c>
       <c r="D80">
-        <v>-0.03274895052537342</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03966134208295428</v>
+      </c>
+      <c r="E80">
+        <v>0.01685889523239861</v>
+      </c>
+      <c r="F80">
+        <v>-0.05588999070918285</v>
+      </c>
+      <c r="G80">
+        <v>-0.0004944479839814017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1429131342950205</v>
+        <v>0.1424665152205985</v>
       </c>
       <c r="C81">
-        <v>0.07250309790632133</v>
+        <v>0.09122620674942677</v>
       </c>
       <c r="D81">
-        <v>0.1131609269971236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1284058028771846</v>
+      </c>
+      <c r="E81">
+        <v>0.0709038716804743</v>
+      </c>
+      <c r="F81">
+        <v>0.02692335175808313</v>
+      </c>
+      <c r="G81">
+        <v>0.01510898706042803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1882887790622261</v>
+        <v>0.22321008371657</v>
       </c>
       <c r="C82">
-        <v>0.08098809489773905</v>
+        <v>0.1470547926588035</v>
       </c>
       <c r="D82">
-        <v>0.1984869210838783</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2529092121492039</v>
+      </c>
+      <c r="E82">
+        <v>-0.03192904031650182</v>
+      </c>
+      <c r="F82">
+        <v>-0.04842096079624869</v>
+      </c>
+      <c r="G82">
+        <v>-0.06686429338192269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04001385446165464</v>
+        <v>0.02710721473547186</v>
       </c>
       <c r="C83">
-        <v>0.02997570872856077</v>
+        <v>0.04345496962242384</v>
       </c>
       <c r="D83">
-        <v>-0.03899413962059507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02967061855203692</v>
+      </c>
+      <c r="E83">
+        <v>0.02736356262514817</v>
+      </c>
+      <c r="F83">
+        <v>-0.03991764239592392</v>
+      </c>
+      <c r="G83">
+        <v>-0.00789555159769365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002477622553810218</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001051334125473353</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001614989849175403</v>
+      </c>
+      <c r="E84">
+        <v>0.002730264360528243</v>
+      </c>
+      <c r="F84">
+        <v>0.000389860424935358</v>
+      </c>
+      <c r="G84">
+        <v>-0.002092804471308861</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2218050499353149</v>
+        <v>0.2045396576814519</v>
       </c>
       <c r="C85">
-        <v>0.09226324729584323</v>
+        <v>0.1094875431746214</v>
       </c>
       <c r="D85">
-        <v>0.1658158770968001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1291359797969441</v>
+      </c>
+      <c r="E85">
+        <v>-0.007118331483296785</v>
+      </c>
+      <c r="F85">
+        <v>0.1044508477605361</v>
+      </c>
+      <c r="G85">
+        <v>0.01887840533416263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009716061718376127</v>
+        <v>0.01174869608888151</v>
       </c>
       <c r="C86">
-        <v>0.02643951955785546</v>
+        <v>0.01891419237198181</v>
       </c>
       <c r="D86">
-        <v>-0.04401538174935135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06018520346045762</v>
+      </c>
+      <c r="E86">
+        <v>0.07978113231655924</v>
+      </c>
+      <c r="F86">
+        <v>-0.08465581548929421</v>
+      </c>
+      <c r="G86">
+        <v>-0.07574676515568685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02421242321597925</v>
+        <v>0.0252882830883232</v>
       </c>
       <c r="C87">
-        <v>0.003890811441140727</v>
+        <v>0.01248226960755564</v>
       </c>
       <c r="D87">
-        <v>-0.08241254340889399</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08056732269097053</v>
+      </c>
+      <c r="E87">
+        <v>0.1311493850406085</v>
+      </c>
+      <c r="F87">
+        <v>-0.07933083370913707</v>
+      </c>
+      <c r="G87">
+        <v>-0.01254433739870798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1118750054046541</v>
+        <v>0.09502275193821332</v>
       </c>
       <c r="C88">
-        <v>0.07018534374448242</v>
+        <v>0.06056809641625543</v>
       </c>
       <c r="D88">
-        <v>0.0224745231212871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.009000719034190799</v>
+      </c>
+      <c r="E88">
+        <v>0.0507604499112987</v>
+      </c>
+      <c r="F88">
+        <v>-0.05506042102353481</v>
+      </c>
+      <c r="G88">
+        <v>-0.04045365825602408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1757981678087545</v>
+        <v>0.2125282330803219</v>
       </c>
       <c r="C89">
-        <v>-0.385751407668592</v>
+        <v>-0.387148335935276</v>
       </c>
       <c r="D89">
-        <v>0.02204962407002705</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01476137227990754</v>
+      </c>
+      <c r="E89">
+        <v>0.06756189553546069</v>
+      </c>
+      <c r="F89">
+        <v>-0.09027292823250611</v>
+      </c>
+      <c r="G89">
+        <v>-0.0005397139545396053</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1686527515140799</v>
+        <v>0.1931162386427037</v>
       </c>
       <c r="C90">
-        <v>-0.3403429964818994</v>
+        <v>-0.3149609680136173</v>
       </c>
       <c r="D90">
-        <v>0.03782275282768724</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02380256847434891</v>
+      </c>
+      <c r="E90">
+        <v>0.05647042066725993</v>
+      </c>
+      <c r="F90">
+        <v>-0.030620393051597</v>
+      </c>
+      <c r="G90">
+        <v>-0.01456505626135605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.193477932853323</v>
+        <v>0.1900575609687642</v>
       </c>
       <c r="C91">
-        <v>0.1228520637037178</v>
+        <v>0.1386207774600811</v>
       </c>
       <c r="D91">
-        <v>0.1306245666800794</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1304562420826191</v>
+      </c>
+      <c r="E91">
+        <v>0.04495091100149873</v>
+      </c>
+      <c r="F91">
+        <v>0.01739501064249454</v>
+      </c>
+      <c r="G91">
+        <v>0.008358194954765216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1559438171987133</v>
+        <v>0.1762476875344178</v>
       </c>
       <c r="C92">
-        <v>-0.293263455537928</v>
+        <v>-0.2967918306693356</v>
       </c>
       <c r="D92">
-        <v>0.0169863686544848</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01607458955346045</v>
+      </c>
+      <c r="E92">
+        <v>0.06193460244999291</v>
+      </c>
+      <c r="F92">
+        <v>-0.05378269365986139</v>
+      </c>
+      <c r="G92">
+        <v>-0.03023082403328407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1877259243107411</v>
+        <v>0.2136786099939517</v>
       </c>
       <c r="C93">
-        <v>-0.3422781754796912</v>
+        <v>-0.3237517141008891</v>
       </c>
       <c r="D93">
-        <v>0.03676458225742316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01880736420482253</v>
+      </c>
+      <c r="E93">
+        <v>0.03885551904496799</v>
+      </c>
+      <c r="F93">
+        <v>-0.004534277072565678</v>
+      </c>
+      <c r="G93">
+        <v>-0.04093930245882123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3436119050632581</v>
+        <v>0.3448176867084819</v>
       </c>
       <c r="C94">
-        <v>0.1274246921430708</v>
+        <v>0.1728719395309657</v>
       </c>
       <c r="D94">
-        <v>0.3773912179819492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4068948335585572</v>
+      </c>
+      <c r="E94">
+        <v>-0.01389221730534738</v>
+      </c>
+      <c r="F94">
+        <v>0.1080619581269449</v>
+      </c>
+      <c r="G94">
+        <v>0.3993627507947534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1253375913865741</v>
+        <v>0.09224663499795273</v>
       </c>
       <c r="C95">
-        <v>0.05026543654283917</v>
+        <v>0.0548508221415465</v>
       </c>
       <c r="D95">
-        <v>-0.2364576086795754</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2108219809992081</v>
+      </c>
+      <c r="E95">
+        <v>-0.133026027640164</v>
+      </c>
+      <c r="F95">
+        <v>-0.7196281622639474</v>
+      </c>
+      <c r="G95">
+        <v>0.5493603459464161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1912329080904895</v>
+        <v>0.1862707760662932</v>
       </c>
       <c r="C98">
-        <v>0.01847254790658125</v>
+        <v>0.04423396683828062</v>
       </c>
       <c r="D98">
-        <v>-0.1583475867289454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2033839969802555</v>
+      </c>
+      <c r="E98">
+        <v>-0.1286878894646591</v>
+      </c>
+      <c r="F98">
+        <v>0.08627271665039839</v>
+      </c>
+      <c r="G98">
+        <v>-0.08315108397471264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007740872813721612</v>
+        <v>0.00660948386724375</v>
       </c>
       <c r="C101">
-        <v>0.03358190534853919</v>
+        <v>0.02811867893990018</v>
       </c>
       <c r="D101">
-        <v>0.01468571973181788</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01610891097906692</v>
+      </c>
+      <c r="E101">
+        <v>0.05056901345740161</v>
+      </c>
+      <c r="F101">
+        <v>-0.06741747430369316</v>
+      </c>
+      <c r="G101">
+        <v>-0.08730973945464132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1244975722738522</v>
+        <v>0.1277421225959953</v>
       </c>
       <c r="C102">
-        <v>0.06683754250749528</v>
+        <v>0.09762987449483769</v>
       </c>
       <c r="D102">
-        <v>0.04882157395566517</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05923856762270058</v>
+      </c>
+      <c r="E102">
+        <v>-0.01571986622644765</v>
+      </c>
+      <c r="F102">
+        <v>-0.02403792050417228</v>
+      </c>
+      <c r="G102">
+        <v>0.009600975857444119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
